--- a/TestTask_1_input_1.xlsx
+++ b/TestTask_1_input_1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Данные по товарам</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>https://www.mechta.kz/noutbuk-lenovo-legion-5-15imh05-82au00c2rk-156-fhdcore-i5-10300h-25-ghz8ssd512gtx1650ti4dos/</t>
+  </si>
+  <si>
+    <t>https://www.mechta.kz/product/noutbuk-lenovo-legion-5-15imh05-82au00c2rk-156-fhdcore-i5-10300h-25-ghz8ssd512gtx1650ti4dos/</t>
   </si>
 </sst>
 </file>
@@ -174,7 +177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -190,6 +193,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -213,6 +222,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -498,7 +513,7 @@
   <dimension ref="B3:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,16 +523,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="10"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -527,61 +542,61 @@
         <v>2</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="10"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="6"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="6"/>
+      <c r="C6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="6"/>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
@@ -591,47 +606,51 @@
         <v>7</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="6"/>
+      <c r="E8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="10"/>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="9" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="10"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
@@ -641,13 +660,13 @@
         <v>2</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16"/>
       <c r="J16" s="4" t="s">
         <v>1</v>
       </c>
@@ -655,81 +674,81 @@
         <v>2</v>
       </c>
       <c r="L16" s="4"/>
-      <c r="M16" s="9" t="s">
+      <c r="M16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="10"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="6"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="1">
         <v>2</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="7" t="s">
+      <c r="L17" s="8"/>
+      <c r="M17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="6"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="8"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>2</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="6"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="1">
         <v>3</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="10"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="12"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>3</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="1">
         <v>4</v>
       </c>
@@ -745,17 +764,17 @@
       <c r="J20" s="1">
         <v>5</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="7" t="s">
+      <c r="L20" s="8"/>
+      <c r="M20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="6"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="8"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J21" s="1">
@@ -770,7 +789,7 @@
       <c r="Q21" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="26">
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="M20:Q20"/>
     <mergeCell ref="C18:D18"/>
@@ -787,30 +806,29 @@
     <mergeCell ref="M16:Q16"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:I8"/>
-    <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:I9"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="E4:I4"/>
     <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E6:I6"/>
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E6:I6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E6" r:id="rId2"/>
-    <hyperlink ref="E7" r:id="rId3"/>
-    <hyperlink ref="E8" r:id="rId4"/>
+    <hyperlink ref="E7" r:id="rId2"/>
+    <hyperlink ref="E8" r:id="rId3"/>
+    <hyperlink ref="E9" r:id="rId4"/>
     <hyperlink ref="M17" r:id="rId5"/>
     <hyperlink ref="E17" r:id="rId6"/>
     <hyperlink ref="E18" r:id="rId7"/>
     <hyperlink ref="M20" r:id="rId8"/>
+    <hyperlink ref="E6" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>